--- a/table-calculations.xlsx
+++ b/table-calculations.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdoughe2/GitHub/otl-covenants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{FF639D70-2449-ED4F-A268-2585610D6BF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FAAFFD-5297-B74E-8667-82E73953C8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31360" yWindow="500" windowWidth="28040" windowHeight="16480"/>
+    <workbookView xWindow="-29500" yWindow="500" windowWidth="28040" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table-calculations" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>UPDATE table in chapter 2.4 when revising</t>
   </si>
@@ -199,12 +199,15 @@
   </si>
   <si>
     <t>Table: Race Restrictive Covenants Located by Connecticut Town</t>
+  </si>
+  <si>
+    <t>counted plots on deed map: 47 (except 8-9, 38)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1050,10 +1053,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1102,7 +1105,7 @@
       </c>
       <c r="C6">
         <f>hamden!D1</f>
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -1166,7 +1169,7 @@
       </c>
       <c r="C10">
         <f>SUM(C6:C9)</f>
-        <v>1002</v>
+        <v>1012</v>
       </c>
     </row>
   </sheetData>
@@ -1175,11 +1178,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1202,7 +1205,7 @@
       </c>
       <c r="D1">
         <f>SUM(D2:D100)</f>
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1297,7 +1300,7 @@
         <v>29</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D8">
         <v>44</v>
@@ -1336,13 +1339,13 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D11">
-        <v>64</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -1350,13 +1353,13 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D12">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1365,7 +1368,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1452,7 +1455,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1513,7 +1516,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/table-calculations.xlsx
+++ b/table-calculations.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jdoughe2/GitHub/otl-covenants/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50FAAFFD-5297-B74E-8667-82E73953C8B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAB4640-CFB7-0A4C-A2A4-C9EE46174357}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29500" yWindow="500" windowWidth="28040" windowHeight="16480" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4140" yWindow="580" windowWidth="23100" windowHeight="15480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table-calculations" sheetId="1" r:id="rId1"/>
-    <sheet name="hamden" sheetId="3" r:id="rId2"/>
-    <sheet name="manchester" sheetId="4" r:id="rId3"/>
-    <sheet name="newington" sheetId="5" r:id="rId4"/>
-    <sheet name="westhartford" sheetId="2" r:id="rId5"/>
+    <sheet name="easthaddam" sheetId="6" r:id="rId2"/>
+    <sheet name="hamden" sheetId="3" r:id="rId3"/>
+    <sheet name="manchester" sheetId="4" r:id="rId4"/>
+    <sheet name="newington" sheetId="5" r:id="rId5"/>
+    <sheet name="westhartford" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,10 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
-  <si>
-    <t>UPDATE table in chapter 2.4 when revising</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
   <si>
     <t>Town</t>
   </si>
@@ -198,10 +196,31 @@
     <t>counted plots on deed map, note 19 and 19A</t>
   </si>
   <si>
-    <t>Table: Race Restrictive Covenants Located by Connecticut Town</t>
-  </si>
-  <si>
     <t>counted plots on deed map: 47 (except 8-9, 38)</t>
+  </si>
+  <si>
+    <t>Table: Racist Covenants Located by Connecticut Town, updated 15 Feb 2024</t>
+  </si>
+  <si>
+    <t>UPDATE table to BOTH chapter 2.4 and myctdeed.com  (or eventually switch to Google Sheet with Datawrapper table)</t>
+  </si>
+  <si>
+    <t>East Haddam</t>
+  </si>
+  <si>
+    <t>lake hayward club</t>
+  </si>
+  <si>
+    <t>moodus estates</t>
+  </si>
+  <si>
+    <t>moodus lake shores</t>
+  </si>
+  <si>
+    <t>carroll acres</t>
+  </si>
+  <si>
+    <t>shore acres park</t>
   </si>
 </sst>
 </file>
@@ -693,11 +712,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="20" builtinId="30" customBuiltin="1"/>
@@ -1054,10 +1074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1068,12 +1088,12 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1083,93 +1103,106 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6">
+        <f>easthaddam!B1</f>
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="C6">
+        <f>easthaddam!D1</f>
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <f>hamden!B1</f>
         <v>11</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <f>hamden!D1</f>
         <v>509</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7">
+      <c r="B8">
         <f>manchester!B1</f>
         <v>3</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <f>manchester!D1</f>
         <v>240</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
+      <c r="B9">
         <f>westhartford!B1</f>
         <v>5</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <f>westhartford!D1</f>
         <v>190</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9">
+      <c r="B10">
         <f>newington!B1</f>
         <v>2</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <f>newington!D1</f>
         <v>73</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10">
-        <f>SUM(B6:B9)</f>
+      <c r="B11">
+        <f>SUM(B7:B10)</f>
         <v>21</v>
       </c>
-      <c r="C10">
-        <f>SUM(C6:C9)</f>
-        <v>1012</v>
+      <c r="C11">
+        <f>SUM(C6:C10)</f>
+        <v>3121</v>
       </c>
     </row>
   </sheetData>
@@ -1178,11 +1211,116 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5227F64B-9F17-344A-A03E-D71BE2277574}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.83203125" customWidth="1"/>
+    <col min="2" max="2" width="20.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1">
+        <f>COUNTA(B2:B100)</f>
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1">
+        <f>SUM(D2:D100)</f>
+        <v>2109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection sqref="A1:D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1194,14 +1332,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <f>COUNTA(B2:B100)</f>
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1">
         <f>SUM(D2:D100)</f>
@@ -1210,13 +1348,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>11</v>
@@ -1224,13 +1362,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D3">
         <v>28</v>
@@ -1238,13 +1376,13 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D4">
         <v>20</v>
@@ -1252,13 +1390,13 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>49</v>
@@ -1266,13 +1404,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6">
         <v>69</v>
@@ -1280,13 +1418,13 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D7">
         <v>53</v>
@@ -1294,13 +1432,13 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D8">
         <v>44</v>
@@ -1308,13 +1446,13 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>89</v>
@@ -1322,13 +1460,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10">
         <v>25</v>
@@ -1336,13 +1474,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>47</v>
@@ -1350,13 +1488,13 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>74</v>
@@ -1367,7 +1505,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
@@ -1384,39 +1522,39 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <f>COUNTA(B2:B100)</f>
         <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1">
         <f>SUM(D2:D6)</f>
         <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F1">
         <f>SUM(F3:F12)</f>
         <v>0</v>
       </c>
       <c r="G1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>18</v>
@@ -1424,10 +1562,10 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>118</v>
@@ -1435,10 +1573,10 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4">
         <v>104</v>
@@ -1446,7 +1584,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1454,7 +1592,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -1471,14 +1609,14 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <f>COUNTA(B2:B100)</f>
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1">
         <f>SUM(D2:D6)</f>
@@ -1487,13 +1625,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D2">
         <v>47</v>
@@ -1501,10 +1639,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>26</v>
@@ -1515,7 +1653,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
@@ -1533,28 +1671,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <f>COUNTA(B2:B100)</f>
         <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1">
         <f>SUM(D2:D6)</f>
         <v>190</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F1">
         <f>SUM(F3:F12)</f>
         <v>3020</v>
       </c>
       <c r="G1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H1" s="3">
         <f>D1/F1</f>
@@ -1563,36 +1701,36 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C2" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D2" s="1">
         <v>12</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1">
         <v>19</v>
@@ -1607,13 +1745,13 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="1">
         <v>84</v>
@@ -1628,13 +1766,13 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="1">
         <v>41</v>
@@ -1649,13 +1787,13 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>34</v>
